--- a/Data/Transitions/19551969Translation.xlsx
+++ b/Data/Transitions/19551969Translation.xlsx
@@ -442,7 +442,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -634,7 +634,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
+    <t>{242.0: 0.3128610519914868}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -1759,7 +1759,7 @@
     <t>{235.0: 0.988542785535267, 49.0: 0.01145721446473326}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
